--- a/Docs/Revenue Chart.xlsx
+++ b/Docs/Revenue Chart.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GEruo\Dropbox\DecentralizedDebit\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60F5305-90F2-4CA9-A1E7-DB58CE5BC369}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{58E6350E-88DE-4656-A563-65E119B971F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{20042A14-7821-436F-95FC-454255FD472C}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="2400" windowHeight="585" xr2:uid="{20042A14-7821-436F-95FC-454255FD472C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -287,7 +288,7 @@
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -516,7 +517,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -892,8 +893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32FB8C3C-BA76-49E2-8468-85E38DA6AAB4}">
   <dimension ref="A1:AJ22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AI14" sqref="AI14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1068,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="V3" s="24">
-        <f>SUM(T3,U3)</f>
+        <f t="shared" ref="V3:V8" si="0">SUM(T3,U3)</f>
         <v>0</v>
       </c>
       <c r="W3" s="19">
@@ -1082,40 +1083,40 @@
         <v>2</v>
       </c>
       <c r="Z3" s="20">
-        <f>PRODUCT(Y3,$K$5)</f>
+        <f t="shared" ref="Z3:Z8" si="1">PRODUCT(Y3,$K$5)</f>
         <v>600</v>
       </c>
       <c r="AA3" s="19">
         <v>1</v>
       </c>
       <c r="AB3" s="20">
-        <f>PRODUCT(AA3,$K$6)</f>
+        <f t="shared" ref="AB3:AB8" si="2">PRODUCT(AA3,$K$6)</f>
         <v>300</v>
       </c>
       <c r="AC3" s="19">
         <v>1</v>
       </c>
       <c r="AD3" s="20">
-        <f>PRODUCT(AC3,$K$7)</f>
+        <f t="shared" ref="AD3:AD8" si="3">PRODUCT(AC3,$K$7)</f>
         <v>375</v>
       </c>
       <c r="AE3" s="24">
-        <f>SUM(AD3,AB3,Z3,X3)</f>
+        <f t="shared" ref="AE3:AE8" si="4">SUM(AD3,AB3,Z3,X3)</f>
         <v>3075</v>
       </c>
       <c r="AF3" s="19">
         <v>1</v>
       </c>
       <c r="AG3" s="31">
-        <f>PRODUCT(AF3,$H$14)</f>
+        <f t="shared" ref="AG3:AG8" si="5">PRODUCT(AF3,$H$14)</f>
         <v>180</v>
       </c>
       <c r="AH3" s="33">
-        <f>V3-AE3-AG3</f>
+        <f t="shared" ref="AH3:AH8" si="6">V3-AE3-AG3</f>
         <v>-3255</v>
       </c>
       <c r="AJ3" s="14">
-        <f>AH3*12</f>
+        <f t="shared" ref="AJ3:AJ8" si="7">AH3*12</f>
         <v>-39060</v>
       </c>
     </row>
@@ -1161,11 +1162,11 @@
       </c>
       <c r="U4" s="20">
         <f>PRODUCT(S4,B4,B18,30)</f>
-        <v>13.500000000000012</v>
+        <v>15.000000000000014</v>
       </c>
       <c r="V4" s="24">
-        <f>SUM(T4,U4)</f>
-        <v>87.000000000000014</v>
+        <f t="shared" si="0"/>
+        <v>88.500000000000014</v>
       </c>
       <c r="W4" s="19">
         <v>2</v>
@@ -1178,41 +1179,41 @@
         <v>4</v>
       </c>
       <c r="Z4" s="20">
-        <f>PRODUCT(Y4,$K$5)</f>
+        <f t="shared" si="1"/>
         <v>1200</v>
       </c>
       <c r="AA4" s="19">
         <v>2</v>
       </c>
       <c r="AB4" s="20">
-        <f>PRODUCT(AA4,$K$6)</f>
+        <f t="shared" si="2"/>
         <v>600</v>
       </c>
       <c r="AC4" s="19">
         <v>5</v>
       </c>
       <c r="AD4" s="20">
-        <f>PRODUCT(AC4,$K$7)</f>
+        <f t="shared" si="3"/>
         <v>1875</v>
       </c>
       <c r="AE4" s="24">
-        <f t="shared" ref="AE4:AE8" si="0">SUM(AD4,AB4,Z4,X4)</f>
+        <f t="shared" si="4"/>
         <v>5475</v>
       </c>
       <c r="AF4" s="19">
         <v>2</v>
       </c>
       <c r="AG4" s="31">
-        <f t="shared" ref="AG4:AG8" si="1">PRODUCT(AF4,$H$14)</f>
+        <f t="shared" si="5"/>
         <v>360</v>
       </c>
       <c r="AH4" s="33">
-        <f t="shared" ref="AH4:AH8" si="2">V4-AE4-AG4</f>
-        <v>-5748</v>
+        <f t="shared" si="6"/>
+        <v>-5746.5</v>
       </c>
       <c r="AJ4" s="14">
-        <f t="shared" ref="AJ4:AJ8" si="3">AH4*12</f>
-        <v>-68976</v>
+        <f t="shared" si="7"/>
+        <v>-68958</v>
       </c>
     </row>
     <row r="5" spans="1:36" ht="60" x14ac:dyDescent="0.25">
@@ -1250,11 +1251,11 @@
       </c>
       <c r="U5" s="20">
         <f>PRODUCT(B4,B18,S5,30)</f>
-        <v>675.00000000000068</v>
+        <v>750.00000000000068</v>
       </c>
       <c r="V5" s="24">
-        <f>SUM(T5,U5)</f>
-        <v>4350.0000000000009</v>
+        <f t="shared" si="0"/>
+        <v>4425.0000000000009</v>
       </c>
       <c r="W5" s="19">
         <v>2</v>
@@ -1267,41 +1268,41 @@
         <v>8</v>
       </c>
       <c r="Z5" s="20">
-        <f>PRODUCT(Y5,$K$5)</f>
+        <f t="shared" si="1"/>
         <v>2400</v>
       </c>
       <c r="AA5" s="19">
         <v>4</v>
       </c>
       <c r="AB5" s="20">
-        <f>PRODUCT(AA5,$K$6)</f>
+        <f t="shared" si="2"/>
         <v>1200</v>
       </c>
       <c r="AC5" s="19">
         <v>8</v>
       </c>
       <c r="AD5" s="20">
-        <f>PRODUCT(AC5,$K$7)</f>
+        <f t="shared" si="3"/>
         <v>3000</v>
       </c>
       <c r="AE5" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>8400</v>
       </c>
       <c r="AF5" s="19">
         <v>10</v>
       </c>
       <c r="AG5" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1800</v>
       </c>
       <c r="AH5" s="33">
-        <f t="shared" si="2"/>
-        <v>-5849.9999999999991</v>
+        <f t="shared" si="6"/>
+        <v>-5774.9999999999991</v>
       </c>
       <c r="AJ5" s="14">
-        <f t="shared" si="3"/>
-        <v>-70199.999999999985</v>
+        <f t="shared" si="7"/>
+        <v>-69299.999999999985</v>
       </c>
     </row>
     <row r="6" spans="1:36" ht="60" x14ac:dyDescent="0.25">
@@ -1342,11 +1343,11 @@
       </c>
       <c r="U6" s="20">
         <f>PRODUCT(B18,S6,B4,30)</f>
-        <v>16875.000000000015</v>
+        <v>18750.000000000018</v>
       </c>
       <c r="V6" s="24">
-        <f>SUM(T6,U6)</f>
-        <v>108750.00000000001</v>
+        <f t="shared" si="0"/>
+        <v>110625.00000000001</v>
       </c>
       <c r="W6" s="19">
         <v>7</v>
@@ -1359,41 +1360,41 @@
         <v>32</v>
       </c>
       <c r="Z6" s="20">
-        <f>PRODUCT(Y6,$K$5)</f>
+        <f t="shared" si="1"/>
         <v>9600</v>
       </c>
       <c r="AA6" s="19">
         <v>6</v>
       </c>
       <c r="AB6" s="20">
-        <f>PRODUCT(AA6,$K$6)</f>
+        <f t="shared" si="2"/>
         <v>1800</v>
       </c>
       <c r="AC6" s="19">
         <v>20</v>
       </c>
       <c r="AD6" s="20">
-        <f>PRODUCT(AC6,$K$7)</f>
+        <f t="shared" si="3"/>
         <v>7500</v>
       </c>
       <c r="AE6" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>25200</v>
       </c>
       <c r="AF6" s="19">
         <v>50</v>
       </c>
       <c r="AG6" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>9000</v>
       </c>
       <c r="AH6" s="24">
-        <f t="shared" si="2"/>
-        <v>74550.000000000015</v>
+        <f t="shared" si="6"/>
+        <v>76425.000000000015</v>
       </c>
       <c r="AJ6" s="14">
-        <f t="shared" si="3"/>
-        <v>894600.00000000023</v>
+        <f t="shared" si="7"/>
+        <v>917100.00000000023</v>
       </c>
     </row>
     <row r="7" spans="1:36" ht="45" x14ac:dyDescent="0.25">
@@ -1434,11 +1435,11 @@
       </c>
       <c r="U7" s="20">
         <f>PRODUCT(B4,B18,S7,30)</f>
-        <v>337500.00000000029</v>
+        <v>375000.00000000035</v>
       </c>
       <c r="V7" s="24">
-        <f>SUM(T7,U7)</f>
-        <v>2175000.0000000005</v>
+        <f t="shared" si="0"/>
+        <v>2212500.0000000005</v>
       </c>
       <c r="W7" s="19">
         <v>185</v>
@@ -1451,41 +1452,41 @@
         <v>128</v>
       </c>
       <c r="Z7" s="20">
-        <f>PRODUCT(Y7,$K$5)</f>
+        <f t="shared" si="1"/>
         <v>38400</v>
       </c>
       <c r="AA7" s="19">
         <v>8</v>
       </c>
       <c r="AB7" s="20">
-        <f>PRODUCT(AA7,$K$6)</f>
+        <f t="shared" si="2"/>
         <v>2400</v>
       </c>
       <c r="AC7" s="19">
         <v>50</v>
       </c>
       <c r="AD7" s="20">
-        <f>PRODUCT(AC7,$K$7)</f>
+        <f t="shared" si="3"/>
         <v>18750</v>
       </c>
       <c r="AE7" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>226050</v>
       </c>
       <c r="AF7" s="19">
         <v>250</v>
       </c>
       <c r="AG7" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>45000</v>
       </c>
       <c r="AH7" s="24">
-        <f t="shared" si="2"/>
-        <v>1903950.0000000005</v>
+        <f t="shared" si="6"/>
+        <v>1941450.0000000005</v>
       </c>
       <c r="AJ7" s="14">
-        <f t="shared" si="3"/>
-        <v>22847400.000000007</v>
+        <f t="shared" si="7"/>
+        <v>23297400.000000007</v>
       </c>
     </row>
     <row r="8" spans="1:36" ht="60" x14ac:dyDescent="0.25">
@@ -1515,11 +1516,11 @@
       </c>
       <c r="U8" s="20">
         <f>PRODUCT(B18,B4,S8,30)</f>
-        <v>3375000.0000000033</v>
+        <v>3750000.0000000037</v>
       </c>
       <c r="V8" s="24">
-        <f>SUM(T8,U8)</f>
-        <v>21750000.000000004</v>
+        <f t="shared" si="0"/>
+        <v>22125000.000000004</v>
       </c>
       <c r="W8" s="19">
         <v>2000</v>
@@ -1532,41 +1533,41 @@
         <v>256</v>
       </c>
       <c r="Z8" s="20">
-        <f>PRODUCT(Y8,$K$5)</f>
+        <f t="shared" si="1"/>
         <v>76800</v>
       </c>
       <c r="AA8" s="19">
         <v>10</v>
       </c>
       <c r="AB8" s="20">
-        <f>PRODUCT(AA8,$K$6)</f>
+        <f t="shared" si="2"/>
         <v>3000</v>
       </c>
       <c r="AC8" s="19">
         <v>100</v>
       </c>
       <c r="AD8" s="20">
-        <f>PRODUCT(AC8,$K$7)</f>
+        <f t="shared" si="3"/>
         <v>37500</v>
       </c>
       <c r="AE8" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1917300</v>
       </c>
       <c r="AF8" s="19">
         <v>1250</v>
       </c>
       <c r="AG8" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>225000</v>
       </c>
       <c r="AH8" s="24">
-        <f t="shared" si="2"/>
-        <v>19607700.000000004</v>
+        <f t="shared" si="6"/>
+        <v>19982700.000000004</v>
       </c>
       <c r="AJ8" s="14">
-        <f t="shared" si="3"/>
-        <v>235292400.00000006</v>
+        <f t="shared" si="7"/>
+        <v>239792400.00000006</v>
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
@@ -1594,7 +1595,7 @@
       </c>
       <c r="AH10" s="43">
         <f>(AH3*R3)+(AH4*R4)+(AH5*R5)</f>
-        <v>-65363.999999999993</v>
+        <v>-64909.499999999993</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
@@ -1693,8 +1694,8 @@
         <v>22</v>
       </c>
       <c r="B18" s="11">
-        <f>SUM(C15,C14)</f>
-        <v>2.25</v>
+        <f>SUM(C15)</f>
+        <v>2.5</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -1712,7 +1713,7 @@
       </c>
       <c r="B21" s="9">
         <f>PRODUCT(B18,B4,30)</f>
-        <v>13.500000000000012</v>
+        <v>15.000000000000014</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -1721,7 +1722,7 @@
       </c>
       <c r="B22" s="14">
         <f>SUM(B20,B21)</f>
-        <v>87.000000000000014</v>
+        <v>88.500000000000014</v>
       </c>
     </row>
   </sheetData>
@@ -1762,7 +1763,7 @@
       </c>
       <c r="B3" s="48">
         <f>(A3/Sheet1!AJ4)</f>
-        <v>-0.15657620041753653</v>
+        <v>-0.15661707126076743</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1772,7 +1773,7 @@
       </c>
       <c r="B4" s="48">
         <f>(A4/Sheet1!AJ5)</f>
-        <v>-0.15384615384615388</v>
+        <v>-0.15584415584415587</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1782,7 +1783,7 @@
       </c>
       <c r="B5" s="48">
         <f>(A5/Sheet1!AJ6)</f>
-        <v>4.2253521126760556E-2</v>
+        <v>4.1216879293424914E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1792,7 +1793,7 @@
       </c>
       <c r="B6" s="48">
         <f>(A6/Sheet1!AJ7)</f>
-        <v>4.3724887733396348E-2</v>
+        <v>4.2880321409255955E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1802,7 +1803,7 @@
       </c>
       <c r="B7" s="48">
         <f>(A7/Sheet1!AJ8)</f>
-        <v>4.5900335072446015E-2</v>
+        <v>4.5038958699274864E-2</v>
       </c>
     </row>
   </sheetData>
